--- a/out/domingo - salida.xlsx/resumen_1.xlsx
+++ b/out/domingo - salida.xlsx/resumen_1.xlsx
@@ -654,55 +654,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.234375</v>
+        <v>0.171875</v>
       </c>
       <c r="C5" t="n">
-        <v>4.875</v>
+        <v>5.015625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.984375</v>
+        <v>1.109375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625</v>
+        <v>0.578125</v>
       </c>
       <c r="F5" t="n">
-        <v>27.8125</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>3.453125</v>
+        <v>3.09375</v>
       </c>
       <c r="H5" t="n">
-        <v>6.078125</v>
+        <v>5.078125</v>
       </c>
       <c r="I5" t="n">
-        <v>4.59375</v>
+        <v>3.34375</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.96875</v>
+        <v>1.15625</v>
       </c>
       <c r="L5" t="n">
-        <v>3.15625</v>
+        <v>2.703125</v>
       </c>
       <c r="M5" t="n">
-        <v>6.578125</v>
+        <v>6.046875</v>
       </c>
       <c r="N5" t="n">
-        <v>19.421875</v>
+        <v>20.28125</v>
       </c>
       <c r="O5" t="n">
-        <v>1.109375</v>
+        <v>0.671875</v>
       </c>
       <c r="P5" t="n">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.09375</v>
+        <v>2.734375</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53125</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="6">
@@ -712,55 +712,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.495765801723687</v>
+        <v>0.4897257898113486</v>
       </c>
       <c r="C6" t="n">
-        <v>3.359421718944242</v>
+        <v>3.529882355609666</v>
       </c>
       <c r="D6" t="n">
-        <v>1.105429421695119</v>
+        <v>1.156310326611577</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9343531843023135</v>
+        <v>0.7303986191506272</v>
       </c>
       <c r="F6" t="n">
-        <v>12.58100735361625</v>
+        <v>6.794021648385451</v>
       </c>
       <c r="G6" t="n">
-        <v>2.794153121549831</v>
+        <v>7.444437040981867</v>
       </c>
       <c r="H6" t="n">
-        <v>2.902132152701877</v>
+        <v>2.29771927982704</v>
       </c>
       <c r="I6" t="n">
-        <v>2.809952550014561</v>
+        <v>2.124824922759744</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8908708063747479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.218026793603463</v>
+        <v>1.04226173479099</v>
       </c>
       <c r="L6" t="n">
-        <v>2.283263815417231</v>
+        <v>1.822954931571179</v>
       </c>
       <c r="M6" t="n">
-        <v>3.379699843439655</v>
+        <v>2.751217263062194</v>
       </c>
       <c r="N6" t="n">
-        <v>6.43108691966249</v>
+        <v>10.10495517296435</v>
       </c>
       <c r="O6" t="n">
-        <v>1.59480493408372</v>
+        <v>0.9767891602040143</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4178554470186724</v>
+        <v>0.3145764348029479</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.09851610460102</v>
+        <v>1.853715167072579</v>
       </c>
       <c r="R6" t="n">
-        <v>1.642382609175047</v>
+        <v>2.081665999466133</v>
       </c>
     </row>
     <row r="7">
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -831,40 +831,40 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.75</v>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -898,43 +898,43 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>26.5</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
         <v>6</v>
       </c>
       <c r="N9" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -950,37 +950,37 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>38.25</v>
+        <v>32.25</v>
       </c>
       <c r="G10" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1005,52 +1005,52 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
+        <v>33</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
         <v>10</v>
       </c>
-      <c r="H11" t="n">
-        <v>15</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" t="n">
-        <v>15</v>
-      </c>
-      <c r="N11" t="n">
-        <v>38</v>
-      </c>
-      <c r="O11" t="n">
-        <v>10</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
